--- a/old_database/crypto/s1cDNASample/s1cDNASample_2496.xlsx
+++ b/old_database/crypto/s1cDNASample/s1cDNASample_2496.xlsx
@@ -40,7 +40,7 @@
     <t>09.29.17</t>
   </si>
   <si>
-    <t>Retrofitted</t>
+    <t>Retrofitted_2496</t>
   </si>
 </sst>
 </file>

--- a/old_database/crypto/s1cDNASample/s1cDNASample_2496.xlsx
+++ b/old_database/crypto/s1cDNASample/s1cDNASample_2496.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="10">
   <si>
     <t>rnaDate</t>
   </si>
@@ -26,6 +26,9 @@
   </si>
   <si>
     <t>s1cDNADate</t>
+  </si>
+  <si>
+    <t>s1cDNAPreparer</t>
   </si>
   <si>
     <t>s1cDNASampleNumber</t>
@@ -398,13 +401,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E54"/>
+  <dimension ref="A1:F54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -420,905 +423,1067 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3">
+        <v>6</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4">
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4">
+        <v>6</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5">
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5">
+        <v>6</v>
+      </c>
+      <c r="E5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6">
         <v>5</v>
       </c>
       <c r="D6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6">
         <v>5</v>
       </c>
-      <c r="E6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7">
         <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8">
         <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>6</v>
+      </c>
+      <c r="E8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9">
         <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>6</v>
+      </c>
+      <c r="E9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10">
         <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>5</v>
-      </c>
-      <c r="E10">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>6</v>
+      </c>
+      <c r="E10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C11">
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>5</v>
-      </c>
-      <c r="E11">
+        <v>6</v>
+      </c>
+      <c r="E11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C12">
         <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>5</v>
-      </c>
-      <c r="E12">
+        <v>6</v>
+      </c>
+      <c r="E12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C13">
         <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>6</v>
-      </c>
-      <c r="E13">
+        <v>7</v>
+      </c>
+      <c r="E13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C14">
         <v>13</v>
       </c>
       <c r="D14" t="s">
-        <v>6</v>
-      </c>
-      <c r="E14">
+        <v>7</v>
+      </c>
+      <c r="E14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15">
         <v>14</v>
       </c>
       <c r="D15" t="s">
-        <v>6</v>
-      </c>
-      <c r="E15">
+        <v>7</v>
+      </c>
+      <c r="E15" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16">
         <v>15</v>
       </c>
       <c r="D16" t="s">
-        <v>6</v>
-      </c>
-      <c r="E16">
+        <v>7</v>
+      </c>
+      <c r="E16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17">
         <v>16</v>
       </c>
       <c r="D17" t="s">
-        <v>6</v>
-      </c>
-      <c r="E17">
+        <v>7</v>
+      </c>
+      <c r="E17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18">
         <v>17</v>
       </c>
       <c r="D18" t="s">
-        <v>6</v>
-      </c>
-      <c r="E18">
+        <v>7</v>
+      </c>
+      <c r="E18" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19">
         <v>18</v>
       </c>
       <c r="D19" t="s">
-        <v>6</v>
-      </c>
-      <c r="E19">
+        <v>7</v>
+      </c>
+      <c r="E19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20">
         <v>19</v>
       </c>
       <c r="D20" t="s">
-        <v>6</v>
-      </c>
-      <c r="E20">
+        <v>7</v>
+      </c>
+      <c r="E20" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21">
         <v>20</v>
       </c>
       <c r="D21" t="s">
-        <v>6</v>
-      </c>
-      <c r="E21">
+        <v>7</v>
+      </c>
+      <c r="E21" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22">
         <v>21</v>
       </c>
       <c r="D22" t="s">
-        <v>6</v>
-      </c>
-      <c r="E22">
+        <v>7</v>
+      </c>
+      <c r="E22" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23">
         <v>22</v>
       </c>
       <c r="D23" t="s">
-        <v>6</v>
-      </c>
-      <c r="E23">
+        <v>7</v>
+      </c>
+      <c r="E23" t="s">
+        <v>9</v>
+      </c>
+      <c r="F23">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24">
         <v>23</v>
       </c>
       <c r="D24" t="s">
-        <v>6</v>
-      </c>
-      <c r="E24">
+        <v>7</v>
+      </c>
+      <c r="E24" t="s">
+        <v>9</v>
+      </c>
+      <c r="F24">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25">
         <v>24</v>
       </c>
       <c r="D25" t="s">
-        <v>6</v>
-      </c>
-      <c r="E25">
+        <v>7</v>
+      </c>
+      <c r="E25" t="s">
+        <v>9</v>
+      </c>
+      <c r="F25">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26">
         <v>25</v>
       </c>
       <c r="D26" t="s">
-        <v>6</v>
-      </c>
-      <c r="E26">
+        <v>7</v>
+      </c>
+      <c r="E26" t="s">
+        <v>9</v>
+      </c>
+      <c r="F26">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:6">
       <c r="A27" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27">
         <v>26</v>
       </c>
       <c r="D27" t="s">
-        <v>6</v>
-      </c>
-      <c r="E27">
+        <v>7</v>
+      </c>
+      <c r="E27" t="s">
+        <v>9</v>
+      </c>
+      <c r="F27">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:6">
       <c r="A28" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28">
         <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>6</v>
-      </c>
-      <c r="E28">
+        <v>7</v>
+      </c>
+      <c r="E28" t="s">
+        <v>9</v>
+      </c>
+      <c r="F28">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29">
         <v>28</v>
       </c>
       <c r="D29" t="s">
-        <v>6</v>
-      </c>
-      <c r="E29">
+        <v>7</v>
+      </c>
+      <c r="E29" t="s">
+        <v>9</v>
+      </c>
+      <c r="F29">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:6">
       <c r="A30" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30">
         <v>29</v>
       </c>
       <c r="D30" t="s">
-        <v>6</v>
-      </c>
-      <c r="E30">
+        <v>7</v>
+      </c>
+      <c r="E30" t="s">
+        <v>9</v>
+      </c>
+      <c r="F30">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:6">
       <c r="A31" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31">
         <v>30</v>
       </c>
       <c r="D31" t="s">
-        <v>6</v>
-      </c>
-      <c r="E31">
+        <v>7</v>
+      </c>
+      <c r="E31" t="s">
+        <v>9</v>
+      </c>
+      <c r="F31">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:6">
       <c r="A32" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32">
         <v>31</v>
       </c>
       <c r="D32" t="s">
-        <v>6</v>
-      </c>
-      <c r="E32">
+        <v>7</v>
+      </c>
+      <c r="E32" t="s">
+        <v>9</v>
+      </c>
+      <c r="F32">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:6">
       <c r="A33" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33">
         <v>32</v>
       </c>
       <c r="D33" t="s">
-        <v>6</v>
-      </c>
-      <c r="E33">
+        <v>7</v>
+      </c>
+      <c r="E33" t="s">
+        <v>9</v>
+      </c>
+      <c r="F33">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:6">
       <c r="A34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34">
         <v>33</v>
       </c>
       <c r="D34" t="s">
-        <v>7</v>
-      </c>
-      <c r="E34">
+        <v>8</v>
+      </c>
+      <c r="E34" t="s">
+        <v>9</v>
+      </c>
+      <c r="F34">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:6">
       <c r="A35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35">
         <v>34</v>
       </c>
       <c r="D35" t="s">
-        <v>7</v>
-      </c>
-      <c r="E35">
+        <v>8</v>
+      </c>
+      <c r="E35" t="s">
+        <v>9</v>
+      </c>
+      <c r="F35">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:6">
       <c r="A36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36">
         <v>35</v>
       </c>
       <c r="D36" t="s">
-        <v>7</v>
-      </c>
-      <c r="E36">
+        <v>8</v>
+      </c>
+      <c r="E36" t="s">
+        <v>9</v>
+      </c>
+      <c r="F36">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:6">
       <c r="A37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37">
         <v>36</v>
       </c>
       <c r="D37" t="s">
-        <v>7</v>
-      </c>
-      <c r="E37">
+        <v>8</v>
+      </c>
+      <c r="E37" t="s">
+        <v>9</v>
+      </c>
+      <c r="F37">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:6">
       <c r="A38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38">
         <v>37</v>
       </c>
       <c r="D38" t="s">
-        <v>7</v>
-      </c>
-      <c r="E38">
+        <v>8</v>
+      </c>
+      <c r="E38" t="s">
+        <v>9</v>
+      </c>
+      <c r="F38">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:6">
       <c r="A39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39">
         <v>38</v>
       </c>
       <c r="D39" t="s">
-        <v>7</v>
-      </c>
-      <c r="E39">
+        <v>8</v>
+      </c>
+      <c r="E39" t="s">
+        <v>9</v>
+      </c>
+      <c r="F39">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:6">
       <c r="A40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40">
         <v>39</v>
       </c>
       <c r="D40" t="s">
-        <v>7</v>
-      </c>
-      <c r="E40">
+        <v>8</v>
+      </c>
+      <c r="E40" t="s">
+        <v>9</v>
+      </c>
+      <c r="F40">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:6">
       <c r="A41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41">
         <v>40</v>
       </c>
       <c r="D41" t="s">
-        <v>7</v>
-      </c>
-      <c r="E41">
+        <v>8</v>
+      </c>
+      <c r="E41" t="s">
+        <v>9</v>
+      </c>
+      <c r="F41">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:6">
       <c r="A42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42">
         <v>41</v>
       </c>
       <c r="D42" t="s">
-        <v>7</v>
-      </c>
-      <c r="E42">
+        <v>8</v>
+      </c>
+      <c r="E42" t="s">
+        <v>9</v>
+      </c>
+      <c r="F42">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:6">
       <c r="A43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43">
         <v>42</v>
       </c>
       <c r="D43" t="s">
-        <v>7</v>
-      </c>
-      <c r="E43">
+        <v>8</v>
+      </c>
+      <c r="E43" t="s">
+        <v>9</v>
+      </c>
+      <c r="F43">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:6">
       <c r="A44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44">
         <v>43</v>
       </c>
       <c r="D44" t="s">
-        <v>7</v>
-      </c>
-      <c r="E44">
+        <v>8</v>
+      </c>
+      <c r="E44" t="s">
+        <v>9</v>
+      </c>
+      <c r="F44">
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:6">
       <c r="A45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45">
         <v>44</v>
       </c>
       <c r="D45" t="s">
-        <v>7</v>
-      </c>
-      <c r="E45">
+        <v>8</v>
+      </c>
+      <c r="E45" t="s">
+        <v>9</v>
+      </c>
+      <c r="F45">
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:6">
       <c r="A46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C46">
         <v>45</v>
       </c>
       <c r="D46" t="s">
-        <v>7</v>
-      </c>
-      <c r="E46">
+        <v>8</v>
+      </c>
+      <c r="E46" t="s">
+        <v>9</v>
+      </c>
+      <c r="F46">
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:6">
       <c r="A47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47">
         <v>46</v>
       </c>
       <c r="D47" t="s">
-        <v>7</v>
-      </c>
-      <c r="E47">
+        <v>8</v>
+      </c>
+      <c r="E47" t="s">
+        <v>9</v>
+      </c>
+      <c r="F47">
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:6">
       <c r="A48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48">
         <v>47</v>
       </c>
       <c r="D48" t="s">
-        <v>7</v>
-      </c>
-      <c r="E48">
+        <v>8</v>
+      </c>
+      <c r="E48" t="s">
+        <v>9</v>
+      </c>
+      <c r="F48">
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:6">
       <c r="A49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C49">
         <v>48</v>
       </c>
       <c r="D49" t="s">
-        <v>7</v>
-      </c>
-      <c r="E49">
+        <v>8</v>
+      </c>
+      <c r="E49" t="s">
+        <v>9</v>
+      </c>
+      <c r="F49">
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:6">
       <c r="A50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C50">
         <v>49</v>
       </c>
       <c r="D50" t="s">
-        <v>7</v>
-      </c>
-      <c r="E50">
+        <v>8</v>
+      </c>
+      <c r="E50" t="s">
+        <v>9</v>
+      </c>
+      <c r="F50">
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:6">
       <c r="A51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C51">
         <v>50</v>
       </c>
       <c r="D51" t="s">
-        <v>7</v>
-      </c>
-      <c r="E51">
+        <v>8</v>
+      </c>
+      <c r="E51" t="s">
+        <v>9</v>
+      </c>
+      <c r="F51">
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:6">
       <c r="A52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C52">
         <v>51</v>
       </c>
       <c r="D52" t="s">
-        <v>7</v>
-      </c>
-      <c r="E52">
+        <v>8</v>
+      </c>
+      <c r="E52" t="s">
+        <v>9</v>
+      </c>
+      <c r="F52">
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:6">
       <c r="A53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C53">
         <v>52</v>
       </c>
       <c r="D53" t="s">
-        <v>7</v>
-      </c>
-      <c r="E53">
+        <v>8</v>
+      </c>
+      <c r="E53" t="s">
+        <v>9</v>
+      </c>
+      <c r="F53">
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:6">
       <c r="A54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54">
         <v>53</v>
       </c>
       <c r="D54" t="s">
-        <v>7</v>
-      </c>
-      <c r="E54">
+        <v>8</v>
+      </c>
+      <c r="E54" t="s">
+        <v>9</v>
+      </c>
+      <c r="F54">
         <v>53</v>
       </c>
     </row>

--- a/old_database/crypto/s1cDNASample/s1cDNASample_2496.xlsx
+++ b/old_database/crypto/s1cDNASample/s1cDNASample_2496.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="12">
   <si>
     <t xml:space="preserve">rnaDate</t>
   </si>
@@ -40,10 +40,16 @@
     <t xml:space="preserve">s1cDNASampleNumber</t>
   </si>
   <si>
+    <t xml:space="preserve">s1cDNAProtocol</t>
+  </si>
+  <si>
     <t xml:space="preserve">05.11.17</t>
   </si>
   <si>
     <t xml:space="preserve">Retrofitted_2496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E7420L</t>
   </si>
   <si>
     <t xml:space="preserve">09.27.17</t>
@@ -140,13 +146,17 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -166,10 +176,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F54"/>
+  <dimension ref="A1:G54"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G:G"/>
+      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2:G54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -196,1065 +206,1227 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="G2" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="G3" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>3</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>3</v>
       </c>
+      <c r="G4" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>4</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>4</v>
       </c>
+      <c r="G5" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>5</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F6" s="0" t="n">
         <v>5</v>
       </c>
+      <c r="G6" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>6</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F7" s="0" t="n">
         <v>6</v>
       </c>
+      <c r="G7" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>7</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F8" s="0" t="n">
         <v>7</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>8</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F9" s="0" t="n">
         <v>8</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>9</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F10" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="G10" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>10</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F11" s="0" t="n">
         <v>10</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>11</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F12" s="0" t="n">
         <v>11</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>12</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F13" s="0" t="n">
         <v>12</v>
       </c>
+      <c r="G13" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>13</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F14" s="0" t="n">
         <v>13</v>
       </c>
+      <c r="G14" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>14</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F15" s="0" t="n">
         <v>14</v>
       </c>
+      <c r="G15" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>15</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F16" s="0" t="n">
         <v>15</v>
       </c>
+      <c r="G16" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>16</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F17" s="0" t="n">
         <v>16</v>
       </c>
+      <c r="G17" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>17</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F18" s="0" t="n">
         <v>17</v>
       </c>
+      <c r="G18" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>18</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F19" s="0" t="n">
         <v>18</v>
       </c>
+      <c r="G19" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>19</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F20" s="0" t="n">
         <v>19</v>
       </c>
+      <c r="G20" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>20</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F21" s="0" t="n">
         <v>20</v>
       </c>
+      <c r="G21" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" s="0" t="n">
         <v>21</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F22" s="0" t="n">
         <v>21</v>
       </c>
+      <c r="G22" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" s="0" t="n">
         <v>22</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F23" s="0" t="n">
         <v>22</v>
       </c>
+      <c r="G23" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" s="0" t="n">
         <v>23</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F24" s="0" t="n">
         <v>23</v>
       </c>
+      <c r="G24" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" s="0" t="n">
         <v>24</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F25" s="0" t="n">
         <v>24</v>
       </c>
+      <c r="G25" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" s="0" t="n">
         <v>25</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F26" s="0" t="n">
         <v>25</v>
       </c>
+      <c r="G26" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" s="0" t="n">
         <v>26</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F27" s="0" t="n">
         <v>26</v>
       </c>
+      <c r="G27" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" s="0" t="n">
         <v>27</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F28" s="0" t="n">
         <v>27</v>
       </c>
+      <c r="G28" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" s="0" t="n">
         <v>28</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F29" s="0" t="n">
         <v>28</v>
       </c>
+      <c r="G29" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" s="0" t="n">
         <v>29</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F30" s="0" t="n">
         <v>29</v>
       </c>
+      <c r="G30" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" s="0" t="n">
         <v>30</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F31" s="0" t="n">
         <v>30</v>
       </c>
+      <c r="G31" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" s="0" t="n">
         <v>31</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F32" s="0" t="n">
         <v>31</v>
       </c>
+      <c r="G32" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" s="0" t="n">
         <v>32</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F33" s="0" t="n">
         <v>32</v>
       </c>
+      <c r="G33" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" s="0" t="n">
         <v>33</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F34" s="0" t="n">
         <v>33</v>
       </c>
+      <c r="G34" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" s="0" t="n">
         <v>34</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F35" s="0" t="n">
         <v>34</v>
       </c>
+      <c r="G35" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" s="0" t="n">
         <v>35</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F36" s="0" t="n">
         <v>35</v>
       </c>
+      <c r="G36" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" s="0" t="n">
         <v>36</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F37" s="0" t="n">
         <v>36</v>
       </c>
+      <c r="G37" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" s="0" t="n">
         <v>37</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F38" s="0" t="n">
         <v>37</v>
       </c>
+      <c r="G38" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" s="0" t="n">
         <v>38</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F39" s="0" t="n">
         <v>38</v>
       </c>
+      <c r="G39" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" s="0" t="n">
         <v>39</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F40" s="0" t="n">
         <v>39</v>
       </c>
+      <c r="G40" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" s="0" t="n">
         <v>40</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F41" s="0" t="n">
         <v>40</v>
       </c>
+      <c r="G41" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" s="0" t="n">
         <v>41</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F42" s="0" t="n">
         <v>41</v>
       </c>
+      <c r="G42" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" s="0" t="n">
         <v>42</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F43" s="0" t="n">
         <v>42</v>
       </c>
+      <c r="G43" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" s="0" t="n">
         <v>43</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F44" s="0" t="n">
         <v>43</v>
       </c>
+      <c r="G44" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" s="0" t="n">
         <v>44</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F45" s="0" t="n">
         <v>44</v>
       </c>
+      <c r="G45" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" s="0" t="n">
         <v>45</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E46" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F46" s="0" t="n">
         <v>45</v>
       </c>
+      <c r="G46" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" s="0" t="n">
         <v>46</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F47" s="0" t="n">
         <v>46</v>
       </c>
+      <c r="G47" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" s="0" t="n">
         <v>47</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E48" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F48" s="0" t="n">
         <v>47</v>
       </c>
+      <c r="G48" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" s="0" t="n">
         <v>48</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E49" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F49" s="0" t="n">
         <v>48</v>
       </c>
+      <c r="G49" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" s="0" t="n">
         <v>49</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E50" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F50" s="0" t="n">
         <v>49</v>
       </c>
+      <c r="G50" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" s="0" t="n">
         <v>50</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E51" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F51" s="0" t="n">
         <v>50</v>
       </c>
+      <c r="G51" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" s="0" t="n">
         <v>51</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E52" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F52" s="0" t="n">
         <v>51</v>
       </c>
+      <c r="G52" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" s="0" t="n">
         <v>52</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E53" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F53" s="0" t="n">
         <v>52</v>
       </c>
+      <c r="G53" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" s="0" t="n">
         <v>53</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E54" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F54" s="0" t="n">
         <v>53</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
